--- a/full_data/third_part_children_data.xlsx
+++ b/full_data/third_part_children_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Library/Containers/com.microsoft.Excel/Data/Desktop/BassConnections/full_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33B740-AB73-7F46-AB04-06D367B90A2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9AA7E-C544-F14F-9BE1-E7400F660B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8260" yWindow="1860" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1142" workbookViewId="0">
-      <selection activeCell="A1153" sqref="A1153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3899,7 +3899,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -13118,6 +13118,7 @@
   <hyperlinks>
     <hyperlink ref="A1131" r:id="rId1" xr:uid="{6B18A0D3-EA57-514A-8E9E-0C73EFD798F9}"/>
     <hyperlink ref="A1153" r:id="rId2" xr:uid="{C37B9F9B-9328-1042-A7E5-6016386B4115}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{590F9BE9-8AE3-CC46-AEFD-6D881BF33F28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/full_data/third_part_children_data.xlsx
+++ b/full_data/third_part_children_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Library/Containers/com.microsoft.Excel/Data/Desktop/BassConnections/full_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9AA7E-C544-F14F-9BE1-E7400F660B87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7AD781-877B-D34A-ABC4-C28BDEEF13C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8260" yWindow="1860" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3881,8 +3881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
+      <selection activeCell="G1155" sqref="G1155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
